--- a/biology/Médecine/Alexandre_François_Ollivier/Alexandre_François_Ollivier.xlsx
+++ b/biology/Médecine/Alexandre_François_Ollivier/Alexandre_François_Ollivier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexandre_Fran%C3%A7ois_Ollivier</t>
+          <t>Alexandre_François_Ollivier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexandre François Ollivier, né le 10 mars 1790 à Paris[1] et mort le 6 juin 1844 dans la même ville, est un médecin et chirurgien français de l'époque Napoléonienne, précurseur de l'asepsie. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre François Ollivier, né le 10 mars 1790 à Paris et mort le 6 juin 1844 dans la même ville, est un médecin et chirurgien français de l'époque Napoléonienne, précurseur de l'asepsie. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexandre_Fran%C3%A7ois_Ollivier</t>
+          <t>Alexandre_François_Ollivier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre François Ollivier étudie la médecine à la Faculté de Paris et y obtient son doctorat.
 En 1810, alors qu'il sert comme médecin sous-aide major dans le sud de l'Espagne, il se contamine volontairement à plusieurs reprises afin de comprendre les infections gangréneuses dénommées alors « pourriture d'hôpital ». Ses expériences le convainquent qu'il est sur la voie d'une découverte fondamentale mais ses supérieurs, tout en tentant d'exploiter ses idées, lui en contestent la paternité.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexandre_Fran%C3%A7ois_Ollivier</t>
+          <t>Alexandre_François_Ollivier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traité expérimental du typhus traumatique, gangrène ou pourriture des hôpitaux, contenant des observations nouvelles sur diverses gangrènes, épidémies, contagions. Ouvrage ampliatif de deux mémoires adressés en 1810 et 1811 au Conseil de santé des armées, Paris, Librairie de Mme Seignot, 1822, In-8°, LIV-474 p.
 Réponse du Dr Ollivier aux attaques dont il a été l'objet comme inventeur et vendeur d'un remède secret. 12 juillet 1829 - Extrait de « la Clinique » du 16 juillet 1829, Paris, Morinval, 1829, In-8°, 4 p.
